--- a/Listado Clientes.xlsx
+++ b/Listado Clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Facturador-E-Multiusuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FECC2FE-DF0F-4BDD-B07A-652B25EC736F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287E3155-BB44-41BC-86A9-C6E5BCFAA861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,1377 +209,1372 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="AFIP"/>
       <sheetName val="ATM"/>
       <sheetName val="Muni"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="1">
-          <cell r="L1" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="L2"/>
-        </row>
+      <sheetData sheetId="0">
         <row r="3">
+          <cell r="I3" t="str">
+            <v>CUIT AFIP N</v>
+          </cell>
           <cell r="J3" t="str">
             <v>CUIT Contrib N</v>
           </cell>
           <cell r="K3" t="str">
             <v>Clave N</v>
           </cell>
-          <cell r="L3" t="str">
-            <v>Importar Chrome</v>
-          </cell>
         </row>
         <row r="4">
+          <cell r="I4">
+            <v>27061302838</v>
+          </cell>
           <cell r="J4">
             <v>27061302838</v>
           </cell>
           <cell r="K4" t="str">
             <v>Acostadelia101</v>
           </cell>
-          <cell r="L4" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27061302838,Acostadelia101</v>
-          </cell>
         </row>
         <row r="5">
+          <cell r="I5">
+            <v>23183086499</v>
+          </cell>
           <cell r="J5">
             <v>30709419567</v>
           </cell>
           <cell r="K5" t="str">
             <v>Horacio2023</v>
           </cell>
-          <cell r="L5" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23183086499,Horacio2023</v>
-          </cell>
         </row>
         <row r="6">
+          <cell r="I6">
+            <v>20203385197</v>
+          </cell>
           <cell r="J6">
             <v>20203385197</v>
           </cell>
           <cell r="K6" t="str">
             <v>JCAmarilla2273</v>
           </cell>
-          <cell r="L6" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20203385197,JCAmarilla2273</v>
-          </cell>
         </row>
         <row r="7">
+          <cell r="I7">
+            <v>20170395167</v>
+          </cell>
           <cell r="J7">
             <v>30592932446</v>
           </cell>
           <cell r="K7" t="str">
             <v>Hugohope210</v>
           </cell>
-          <cell r="L7" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20170395167,Hugohope210</v>
-          </cell>
         </row>
         <row r="8">
+          <cell r="I8">
+            <v>20114794083</v>
+          </cell>
           <cell r="J8">
             <v>30708553715</v>
           </cell>
           <cell r="K8" t="str">
             <v>Victordf2023</v>
           </cell>
-          <cell r="L8" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20114794083,Victordf2023</v>
-          </cell>
         </row>
         <row r="9">
+          <cell r="I9">
+            <v>20208992032</v>
+          </cell>
           <cell r="J9">
             <v>20208992032</v>
           </cell>
           <cell r="K9" t="str">
             <v>ASTgerardo23</v>
           </cell>
-          <cell r="L9" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20208992032,ASTgerardo23</v>
-          </cell>
         </row>
         <row r="10">
+          <cell r="I10">
+            <v>20175255819</v>
+          </cell>
           <cell r="J10">
             <v>20175255819</v>
           </cell>
           <cell r="K10" t="str">
             <v>Crispin2023</v>
           </cell>
-          <cell r="L10" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20175255819,Crispin2023</v>
-          </cell>
         </row>
         <row r="11">
+          <cell r="I11">
+            <v>23183086499</v>
+          </cell>
           <cell r="J11">
             <v>23183086499</v>
           </cell>
           <cell r="K11" t="str">
             <v>Horacio2023</v>
           </cell>
-          <cell r="L11" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23183086499,Horacio2023</v>
-          </cell>
         </row>
         <row r="12">
+          <cell r="I12">
+            <v>20416948926</v>
+          </cell>
           <cell r="J12">
             <v>20416948926</v>
           </cell>
           <cell r="K12" t="str">
             <v>Beitia2022</v>
           </cell>
-          <cell r="L12" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20416948926,Beitia2022</v>
-          </cell>
         </row>
         <row r="13">
+          <cell r="I13">
+            <v>20398190727</v>
+          </cell>
           <cell r="J13">
             <v>20398190727</v>
           </cell>
           <cell r="K13" t="str">
             <v>Unaibeitia207</v>
           </cell>
-          <cell r="L13" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20398190727,Unaibeitia207</v>
-          </cell>
         </row>
         <row r="14">
+          <cell r="I14">
+            <v>20246008109</v>
+          </cell>
           <cell r="J14">
             <v>20246008109</v>
           </cell>
           <cell r="K14" t="str">
             <v>L@rrygrb210</v>
           </cell>
-          <cell r="L14" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20246008109,L@rrygrb210</v>
-          </cell>
         </row>
         <row r="15">
+          <cell r="I15">
+            <v>20168291281</v>
+          </cell>
           <cell r="J15">
             <v>20168291281</v>
           </cell>
           <cell r="K15" t="str">
             <v>busTos1964</v>
           </cell>
-          <cell r="L15" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20168291281,busTos1964</v>
-          </cell>
         </row>
         <row r="16">
+          <cell r="I16">
+            <v>20147130202</v>
+          </cell>
           <cell r="J16">
             <v>30650940667</v>
           </cell>
           <cell r="K16" t="str">
             <v>Martinb202</v>
           </cell>
-          <cell r="L16" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20147130202,Martinb202</v>
-          </cell>
         </row>
         <row r="17">
+          <cell r="I17">
+            <v>20147130202</v>
+          </cell>
           <cell r="J17">
             <v>20147130202</v>
           </cell>
           <cell r="K17" t="str">
             <v>Martinb202</v>
           </cell>
-          <cell r="L17" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20147130202,Martinb202</v>
-          </cell>
         </row>
         <row r="18">
+          <cell r="I18">
+            <v>27148268105</v>
+          </cell>
           <cell r="J18">
             <v>27148268105</v>
           </cell>
           <cell r="K18" t="str">
             <v>Gracielac276</v>
           </cell>
-          <cell r="L18" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27148268105,Gracielac276</v>
-          </cell>
         </row>
         <row r="19">
+          <cell r="I19">
+            <v>27261827366</v>
+          </cell>
           <cell r="J19">
             <v>27261827366</v>
           </cell>
           <cell r="K19" t="str">
             <v>CarballoG12</v>
           </cell>
-          <cell r="L19" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27261827366,CarballoG12</v>
-          </cell>
         </row>
         <row r="20">
+          <cell r="I20">
+            <v>23149462074</v>
+          </cell>
           <cell r="J20">
             <v>30707912223</v>
           </cell>
           <cell r="K20" t="str">
             <v>Gabriela2023</v>
           </cell>
-          <cell r="L20" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23149462074,Gabriela2023</v>
-          </cell>
         </row>
         <row r="21">
+          <cell r="I21">
+            <v>20082750488</v>
+          </cell>
           <cell r="J21">
             <v>20082750488</v>
           </cell>
           <cell r="K21" t="str">
             <v>CastroC211</v>
           </cell>
-          <cell r="L21" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20082750488,CastroC211</v>
-          </cell>
         </row>
         <row r="22">
+          <cell r="I22">
+            <v>20303980378</v>
+          </cell>
           <cell r="J22">
             <v>20303980378</v>
           </cell>
           <cell r="K22" t="str">
             <v>Sinclair.209</v>
           </cell>
-          <cell r="L22" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20303980378,Sinclair.209</v>
-          </cell>
         </row>
         <row r="23">
+          <cell r="I23">
+            <v>20277690323</v>
+          </cell>
           <cell r="J23">
             <v>20277690323</v>
           </cell>
           <cell r="K23" t="str">
             <v>Julian79</v>
           </cell>
-          <cell r="L23" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20277690323,Julian79</v>
-          </cell>
         </row>
         <row r="24">
+          <cell r="I24">
+            <v>20174123072</v>
+          </cell>
           <cell r="J24">
             <v>30672372697</v>
           </cell>
           <cell r="K24" t="str">
             <v>Carlos1510</v>
           </cell>
-          <cell r="L24" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20174123072,Carlos1510</v>
-          </cell>
         </row>
         <row r="25">
+          <cell r="I25">
+            <v>27222731416</v>
+          </cell>
           <cell r="J25">
             <v>30712026797</v>
           </cell>
           <cell r="K25" t="str">
             <v>Nonona2022</v>
           </cell>
-          <cell r="L25" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27222731416,Nonona2022</v>
-          </cell>
         </row>
         <row r="26">
+          <cell r="I26">
+            <v>23351897074</v>
+          </cell>
           <cell r="J26">
             <v>30715085409</v>
           </cell>
           <cell r="K26" t="str">
             <v>Lucila2022</v>
           </cell>
-          <cell r="L26" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23351897074,Lucila2022</v>
-          </cell>
         </row>
         <row r="27">
+          <cell r="I27">
+            <v>27109797257</v>
+          </cell>
           <cell r="J27">
             <v>30717059111</v>
           </cell>
           <cell r="K27" t="str">
             <v>Olgascotto279</v>
           </cell>
-          <cell r="L27" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27109797257,Olgascotto279</v>
-          </cell>
         </row>
         <row r="28">
+          <cell r="I28">
+            <v>27171709925</v>
+          </cell>
           <cell r="J28">
             <v>27171709925</v>
           </cell>
           <cell r="K28" t="str">
             <v>Coronasm276</v>
           </cell>
-          <cell r="L28" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27171709925,Coronasm276</v>
-          </cell>
         </row>
         <row r="29">
+          <cell r="I29">
+            <v>20208993462</v>
+          </cell>
           <cell r="J29">
             <v>20208993462</v>
           </cell>
           <cell r="K29" t="str">
             <v>corrales46</v>
           </cell>
-          <cell r="L29" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20208993462,corrales46</v>
-          </cell>
         </row>
         <row r="30">
+          <cell r="I30">
+            <v>20168291680</v>
+          </cell>
           <cell r="J30">
             <v>20168291680</v>
           </cell>
           <cell r="K30" t="str">
             <v>Luisc30002</v>
           </cell>
-          <cell r="L30" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20168291680,Luisc30002</v>
-          </cell>
         </row>
         <row r="31">
+          <cell r="I31">
+            <v>20114794083</v>
+          </cell>
           <cell r="J31">
             <v>30672355393</v>
           </cell>
           <cell r="K31" t="str">
             <v>Victordf2023</v>
           </cell>
-          <cell r="L31" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20114794083,Victordf2023</v>
-          </cell>
         </row>
         <row r="32">
+          <cell r="I32">
+            <v>27055761685</v>
+          </cell>
           <cell r="J32">
             <v>27055761685</v>
           </cell>
           <cell r="K32" t="str">
             <v>AngelaC275</v>
           </cell>
-          <cell r="L32" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27055761685,AngelaC275</v>
-          </cell>
         </row>
         <row r="33">
+          <cell r="I33">
+            <v>23267800499</v>
+          </cell>
           <cell r="J33">
             <v>23267800499</v>
           </cell>
           <cell r="K33" t="str">
             <v>diego10</v>
           </cell>
-          <cell r="L33" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23267800499,diego10</v>
-          </cell>
         </row>
         <row r="34">
+          <cell r="I34">
+            <v>23051636864</v>
+          </cell>
           <cell r="J34">
             <v>23051636864</v>
           </cell>
           <cell r="K34" t="str">
             <v>LUCILA10</v>
           </cell>
-          <cell r="L34" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23051636864,LUCILA10</v>
-          </cell>
         </row>
         <row r="35">
+          <cell r="I35">
+            <v>27201178776</v>
+          </cell>
           <cell r="J35">
             <v>30717537153</v>
           </cell>
           <cell r="K35" t="str">
             <v>Monicaszy11</v>
           </cell>
-          <cell r="L35" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27201178776,Monicaszy11</v>
-          </cell>
         </row>
         <row r="36">
+          <cell r="I36">
+            <v>20149462601</v>
+          </cell>
           <cell r="J36">
             <v>30709431834</v>
           </cell>
           <cell r="K36" t="str">
             <v>Marcelo203</v>
           </cell>
-          <cell r="L36" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20149462601,Marcelo203</v>
-          </cell>
         </row>
         <row r="37">
+          <cell r="I37">
+            <v>20175255819</v>
+          </cell>
           <cell r="J37">
             <v>30568711420</v>
           </cell>
           <cell r="K37" t="str">
             <v>Crispin2023</v>
           </cell>
-          <cell r="L37" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20175255819,Crispin2023</v>
-          </cell>
         </row>
         <row r="38">
+          <cell r="I38">
+            <v>20361947674</v>
+          </cell>
           <cell r="J38">
             <v>20361947674</v>
           </cell>
           <cell r="K38" t="str">
             <v>Cesare2023</v>
           </cell>
-          <cell r="L38" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20361947674,Cesare2023</v>
-          </cell>
         </row>
         <row r="39">
+          <cell r="I39">
+            <v>20149466356</v>
+          </cell>
           <cell r="J39">
             <v>20149466356</v>
           </cell>
           <cell r="K39" t="str">
             <v>REEnriquez208</v>
           </cell>
-          <cell r="L39" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20149466356,REEnriquez208</v>
-          </cell>
         </row>
         <row r="40">
+          <cell r="I40">
+            <v>20169933031</v>
+          </cell>
           <cell r="J40">
             <v>20169933031</v>
           </cell>
           <cell r="K40" t="str">
             <v>Estudio2022</v>
           </cell>
-          <cell r="L40" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20169933031,Estudio2022</v>
-          </cell>
         </row>
         <row r="41">
+          <cell r="I41">
+            <v>20168296011</v>
+          </cell>
           <cell r="J41">
             <v>33653520439</v>
           </cell>
           <cell r="K41" t="str">
             <v>Jcmayol2022</v>
           </cell>
-          <cell r="L41" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20168296011,Jcmayol2022</v>
-          </cell>
         </row>
         <row r="42">
+          <cell r="I42">
+            <v>20170395167</v>
+          </cell>
           <cell r="J42">
             <v>30672356381</v>
           </cell>
           <cell r="K42" t="str">
             <v>Hugohope210</v>
           </cell>
-          <cell r="L42" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20170395167,Hugohope210</v>
-          </cell>
         </row>
         <row r="43">
+          <cell r="I43">
+            <v>27182653972</v>
+          </cell>
           <cell r="J43">
             <v>27182653972</v>
           </cell>
           <cell r="K43" t="str">
             <v>Chabuca274</v>
           </cell>
-          <cell r="L43" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27182653972,Chabuca274</v>
-          </cell>
         </row>
         <row r="44">
+          <cell r="I44">
+            <v>20168291834</v>
+          </cell>
           <cell r="J44">
             <v>20168291834</v>
           </cell>
           <cell r="K44" t="str">
             <v>TOfi04041966</v>
           </cell>
-          <cell r="L44" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20168291834,TOfi04041966</v>
-          </cell>
         </row>
         <row r="45">
+          <cell r="I45">
+            <v>20133762761</v>
+          </cell>
           <cell r="J45">
             <v>20133762761</v>
           </cell>
           <cell r="K45" t="str">
             <v>Cferreyra60</v>
           </cell>
-          <cell r="L45" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20133762761,Cferreyra60</v>
-          </cell>
         </row>
         <row r="46">
+          <cell r="I46">
+            <v>20327623967</v>
+          </cell>
           <cell r="J46">
             <v>20327623967</v>
           </cell>
           <cell r="K46" t="str">
             <v>Candresferreyra86</v>
           </cell>
-          <cell r="L46" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20327623967,Candresferreyra86</v>
-          </cell>
         </row>
         <row r="47">
+          <cell r="I47">
+            <v>23342751644</v>
+          </cell>
           <cell r="J47">
             <v>23342751644</v>
           </cell>
           <cell r="K47" t="str">
             <v>CVFerreyra89</v>
           </cell>
-          <cell r="L47" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23342751644,CVFerreyra89</v>
-          </cell>
         </row>
         <row r="48">
+          <cell r="I48">
+            <v>20170394845</v>
+          </cell>
           <cell r="J48">
             <v>20170394845</v>
           </cell>
           <cell r="K48" t="str">
             <v>MJferreyra64</v>
           </cell>
-          <cell r="L48" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20170394845,MJferreyra64</v>
-          </cell>
         </row>
         <row r="49">
+          <cell r="I49">
+            <v>23173121539</v>
+          </cell>
           <cell r="J49">
             <v>30715347926</v>
           </cell>
           <cell r="K49" t="str">
             <v>Posadas4601</v>
           </cell>
-          <cell r="L49" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23173121539,Posadas4601</v>
-          </cell>
         </row>
         <row r="50">
+          <cell r="I50">
+            <v>20100325048</v>
+          </cell>
           <cell r="J50">
             <v>30708878762</v>
           </cell>
           <cell r="K50" t="str">
             <v>Jouliae1357</v>
           </cell>
-          <cell r="L50" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20100325048,Jouliae1357</v>
-          </cell>
         </row>
         <row r="51">
+          <cell r="I51">
+            <v>20100325048</v>
+          </cell>
           <cell r="J51">
             <v>30708626348</v>
           </cell>
           <cell r="K51" t="str">
             <v>Jouliae1357</v>
           </cell>
-          <cell r="L51" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20100325048,Jouliae1357</v>
-          </cell>
         </row>
         <row r="52">
+          <cell r="I52">
+            <v>20175255819</v>
+          </cell>
           <cell r="J52">
             <v>30701299538</v>
           </cell>
           <cell r="K52" t="str">
             <v>Crispin2023</v>
           </cell>
-          <cell r="L52" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20175255819,Crispin2023</v>
-          </cell>
         </row>
         <row r="53">
+          <cell r="I53">
+            <v>20203387882</v>
+          </cell>
           <cell r="J53">
             <v>20203387882</v>
           </cell>
           <cell r="K53" t="str">
             <v>FREAZA01</v>
           </cell>
-          <cell r="L53" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20203387882,FREAZA01</v>
-          </cell>
         </row>
         <row r="54">
+          <cell r="I54">
+            <v>27403354010</v>
+          </cell>
           <cell r="J54">
             <v>30717638537</v>
           </cell>
           <cell r="K54" t="str">
             <v>Araceli2023</v>
           </cell>
-          <cell r="L54" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27403354010,Araceli2023</v>
-          </cell>
         </row>
         <row r="55">
+          <cell r="I55">
+            <v>20149466356</v>
+          </cell>
           <cell r="J55">
             <v>30710404131</v>
           </cell>
           <cell r="K55" t="str">
             <v>REEnriquez208</v>
           </cell>
-          <cell r="L55" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20149466356,REEnriquez208</v>
-          </cell>
         </row>
         <row r="56">
+          <cell r="I56">
+            <v>27111482476</v>
+          </cell>
           <cell r="J56">
             <v>27111482476</v>
           </cell>
           <cell r="K56" t="str">
             <v>DORA2716</v>
           </cell>
-          <cell r="L56" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27111482476,DORA2716</v>
-          </cell>
         </row>
         <row r="57">
+          <cell r="I57">
+            <v>20170395167</v>
+          </cell>
           <cell r="J57">
             <v>20170395167</v>
           </cell>
           <cell r="K57" t="str">
             <v>Hugohope210</v>
           </cell>
-          <cell r="L57" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20170395167,Hugohope210</v>
-          </cell>
         </row>
         <row r="58">
+          <cell r="I58">
+            <v>27343669262</v>
+          </cell>
           <cell r="J58">
             <v>27343669262</v>
           </cell>
           <cell r="K58" t="str">
             <v>Jessica2022</v>
           </cell>
-          <cell r="L58" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27343669262,Jessica2022</v>
-          </cell>
         </row>
         <row r="59">
+          <cell r="I59">
+            <v>24056449082</v>
+          </cell>
           <cell r="J59">
             <v>24056449082</v>
           </cell>
           <cell r="K59" t="str">
             <v>Johnny2023</v>
           </cell>
-          <cell r="L59" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,24056449082,Johnny2023</v>
-          </cell>
         </row>
         <row r="60">
+          <cell r="I60">
+            <v>27364071359</v>
+          </cell>
           <cell r="J60">
             <v>27364071359</v>
           </cell>
           <cell r="K60" t="str">
             <v>MelissaH1104</v>
           </cell>
-          <cell r="L60" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27364071359,MelissaH1104</v>
-          </cell>
         </row>
         <row r="61">
+          <cell r="I61">
+            <v>20149466739</v>
+          </cell>
           <cell r="J61">
             <v>20149466739</v>
           </cell>
           <cell r="K61" t="str">
             <v>Ricardo212</v>
           </cell>
-          <cell r="L61" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20149466739,Ricardo212</v>
-          </cell>
         </row>
         <row r="62">
+          <cell r="I62">
+            <v>20175255819</v>
+          </cell>
           <cell r="J62">
             <v>33712529909</v>
           </cell>
           <cell r="K62" t="str">
             <v>Crispin2023</v>
           </cell>
-          <cell r="L62" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20175255819,Crispin2023</v>
-          </cell>
         </row>
         <row r="63">
+          <cell r="I63">
+            <v>20174123072</v>
+          </cell>
           <cell r="J63">
             <v>20174123072</v>
           </cell>
           <cell r="K63" t="str">
             <v>Carlos1510</v>
           </cell>
-          <cell r="L63" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20174123072,Carlos1510</v>
-          </cell>
         </row>
         <row r="64">
+          <cell r="I64">
+            <v>20408973598</v>
+          </cell>
           <cell r="J64">
             <v>20408973598</v>
           </cell>
           <cell r="K64" t="str">
             <v>Matiasinsa2023</v>
           </cell>
-          <cell r="L64" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20408973598,Matiasinsa2023</v>
-          </cell>
         </row>
         <row r="65">
+          <cell r="I65">
+            <v>23377046129</v>
+          </cell>
           <cell r="J65">
             <v>23377046129</v>
           </cell>
           <cell r="K65" t="str">
             <v>Nicolas1492</v>
           </cell>
-          <cell r="L65" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23377046129,Nicolas1492</v>
-          </cell>
         </row>
         <row r="66">
+          <cell r="I66">
+            <v>20100325048</v>
+          </cell>
           <cell r="J66">
             <v>20100325048</v>
           </cell>
           <cell r="K66" t="str">
             <v>Jouliae1357</v>
           </cell>
-          <cell r="L66" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20100325048,Jouliae1357</v>
-          </cell>
         </row>
         <row r="67">
+          <cell r="I67">
+            <v>20175255819</v>
+          </cell>
           <cell r="J67">
             <v>33712370829</v>
           </cell>
           <cell r="K67" t="str">
             <v>Crispin2023</v>
           </cell>
-          <cell r="L67" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20175255819,Crispin2023</v>
-          </cell>
         </row>
         <row r="68">
+          <cell r="I68">
+            <v>27045207388</v>
+          </cell>
           <cell r="J68">
             <v>27045207388</v>
           </cell>
           <cell r="K68" t="str">
             <v>Anamaria2022</v>
           </cell>
-          <cell r="L68" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27045207388,Anamaria2022</v>
-          </cell>
         </row>
         <row r="69">
+          <cell r="I69">
+            <v>27222731416</v>
+          </cell>
           <cell r="J69">
             <v>27222731416</v>
           </cell>
           <cell r="K69" t="str">
             <v>Nonona2022</v>
           </cell>
-          <cell r="L69" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27222731416,Nonona2022</v>
-          </cell>
         </row>
         <row r="70">
+          <cell r="I70">
+            <v>27058846916</v>
+          </cell>
           <cell r="J70">
             <v>27058846916</v>
           </cell>
           <cell r="K70" t="str">
             <v>Lazcozh277</v>
           </cell>
-          <cell r="L70" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27058846916,Lazcozh277</v>
-          </cell>
         </row>
         <row r="71">
+          <cell r="I71">
+            <v>23385665709</v>
+          </cell>
           <cell r="J71">
             <v>23385665709</v>
           </cell>
           <cell r="K71" t="str">
             <v>Dallas5058</v>
           </cell>
-          <cell r="L71" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23385665709,Dallas5058</v>
-          </cell>
         </row>
         <row r="72">
+          <cell r="I72">
+            <v>23120538209</v>
+          </cell>
           <cell r="J72">
             <v>23120538209</v>
           </cell>
           <cell r="K72" t="str">
             <v>Pliniolin240</v>
           </cell>
-          <cell r="L72" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23120538209,Pliniolin240</v>
-          </cell>
         </row>
         <row r="73">
+          <cell r="I73">
+            <v>27173878309</v>
+          </cell>
           <cell r="J73">
             <v>27173878309</v>
           </cell>
           <cell r="K73" t="str">
             <v>Lionettoc280</v>
           </cell>
-          <cell r="L73" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27173878309,Lionettoc280</v>
-          </cell>
         </row>
         <row r="74">
+          <cell r="I74">
+            <v>20203385049</v>
+          </cell>
           <cell r="J74">
             <v>20203385049</v>
           </cell>
           <cell r="K74" t="str">
             <v>Posadas4601</v>
           </cell>
-          <cell r="L74" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20203385049,Posadas4601</v>
-          </cell>
         </row>
         <row r="75">
+          <cell r="I75">
+            <v>23173121539</v>
+          </cell>
           <cell r="J75">
             <v>23173121539</v>
           </cell>
           <cell r="K75" t="str">
             <v>Posadas4602</v>
           </cell>
-          <cell r="L75" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23173121539,Posadas4602</v>
-          </cell>
         </row>
         <row r="76">
+          <cell r="I76">
+            <v>23173121539</v>
+          </cell>
           <cell r="J76">
             <v>23173121539</v>
           </cell>
           <cell r="K76" t="str">
             <v>Posadas4602</v>
           </cell>
-          <cell r="L76" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23173121539,Posadas4602</v>
-          </cell>
         </row>
         <row r="77">
+          <cell r="I77">
+            <v>23246015139</v>
+          </cell>
           <cell r="J77">
             <v>23246015139</v>
           </cell>
           <cell r="K77" t="str">
             <v>Posadas4919</v>
           </cell>
-          <cell r="L77" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23246015139,Posadas4919</v>
-          </cell>
         </row>
         <row r="78">
+          <cell r="I78">
+            <v>27163651918</v>
+          </cell>
           <cell r="J78">
             <v>27163651918</v>
           </cell>
           <cell r="K78" t="str">
             <v>Martina2783</v>
           </cell>
-          <cell r="L78" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27163651918,Martina2783</v>
-          </cell>
         </row>
         <row r="79">
+          <cell r="I79">
+            <v>20168296011</v>
+          </cell>
           <cell r="J79">
             <v>20168296011</v>
           </cell>
           <cell r="K79" t="str">
             <v>Jcmayol2022</v>
           </cell>
-          <cell r="L79" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20168296011,Jcmayol2022</v>
-          </cell>
         </row>
         <row r="80">
+          <cell r="I80">
+            <v>20203383666</v>
+          </cell>
           <cell r="J80">
             <v>20203383666</v>
           </cell>
           <cell r="K80" t="str">
             <v>Rmayol2022</v>
           </cell>
-          <cell r="L80" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20203383666,Rmayol2022</v>
-          </cell>
         </row>
         <row r="81">
+          <cell r="I81">
+            <v>20133762761</v>
+          </cell>
           <cell r="J81">
             <v>30657146850</v>
           </cell>
           <cell r="K81" t="str">
             <v>Cferreyra60</v>
           </cell>
-          <cell r="L81" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20133762761,Cferreyra60</v>
-          </cell>
         </row>
         <row r="82">
+          <cell r="I82">
+            <v>27128520851</v>
+          </cell>
           <cell r="J82">
             <v>27128520851</v>
           </cell>
           <cell r="K82" t="str">
             <v>Molaspatricia273</v>
           </cell>
-          <cell r="L82" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27128520851,Molaspatricia273</v>
-          </cell>
         </row>
         <row r="83">
+          <cell r="I83">
+            <v>20077065637</v>
+          </cell>
           <cell r="J83">
             <v>20077065637</v>
           </cell>
           <cell r="K83" t="str">
             <v>PEnsaanibal208</v>
           </cell>
-          <cell r="L83" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20077065637,PEnsaanibal208</v>
-          </cell>
         </row>
         <row r="84">
+          <cell r="I84">
+            <v>20343667966</v>
+          </cell>
           <cell r="J84">
             <v>20343667966</v>
           </cell>
           <cell r="K84" t="str">
             <v>bruno206</v>
           </cell>
-          <cell r="L84" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20343667966,bruno206</v>
-          </cell>
         </row>
         <row r="85">
+          <cell r="I85">
+            <v>20075878495</v>
+          </cell>
           <cell r="J85">
             <v>20075878495</v>
           </cell>
           <cell r="K85" t="str">
             <v>Roberto205</v>
           </cell>
-          <cell r="L85" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20075878495,Roberto205</v>
-          </cell>
         </row>
         <row r="86">
+          <cell r="I86">
+            <v>20334250327</v>
+          </cell>
           <cell r="J86">
             <v>20334250327</v>
           </cell>
           <cell r="K86" t="str">
             <v>Pensalu208</v>
           </cell>
-          <cell r="L86" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20334250327,Pensalu208</v>
-          </cell>
         </row>
         <row r="87">
+          <cell r="I87">
+            <v>27354872183</v>
+          </cell>
           <cell r="J87">
             <v>27354872183</v>
           </cell>
           <cell r="K87" t="str">
             <v>Peugenia275</v>
           </cell>
-          <cell r="L87" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27354872183,Peugenia275</v>
-          </cell>
         </row>
         <row r="88">
+          <cell r="I88">
+            <v>20085452291</v>
+          </cell>
           <cell r="J88">
             <v>20085452291</v>
           </cell>
           <cell r="K88" t="str">
             <v>Oscarp2023</v>
           </cell>
-          <cell r="L88" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20085452291,Oscarp2023</v>
-          </cell>
         </row>
         <row r="89">
+          <cell r="I89">
+            <v>20334250327</v>
+          </cell>
           <cell r="J89">
             <v>30716503816</v>
           </cell>
           <cell r="K89" t="str">
             <v>Pensalu208</v>
           </cell>
-          <cell r="L89" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20334250327,Pensalu208</v>
-          </cell>
         </row>
         <row r="90">
+          <cell r="I90">
+            <v>20172521771</v>
+          </cell>
           <cell r="J90">
             <v>20172521771</v>
           </cell>
           <cell r="K90" t="str">
             <v>Pereyra2022</v>
           </cell>
-          <cell r="L90" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20172521771,Pereyra2022</v>
-          </cell>
         </row>
         <row r="91">
+          <cell r="I91">
+            <v>20115533003</v>
+          </cell>
           <cell r="J91">
             <v>20115533003</v>
           </cell>
           <cell r="K91" t="str">
             <v>Jorgefer2021</v>
           </cell>
-          <cell r="L91" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20115533003,Jorgefer2021</v>
-          </cell>
         </row>
         <row r="92">
+          <cell r="I92">
+            <v>27169311027</v>
+          </cell>
           <cell r="J92">
             <v>27169311027</v>
           </cell>
           <cell r="K92" t="str">
             <v>Piasentinia277</v>
           </cell>
-          <cell r="L92" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27169311027,Piasentinia277</v>
-          </cell>
         </row>
         <row r="93">
+          <cell r="I93">
+            <v>27176756751</v>
+          </cell>
           <cell r="J93">
             <v>27176756751</v>
           </cell>
           <cell r="K93" t="str">
             <v>aTHENUCHI06</v>
           </cell>
-          <cell r="L93" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27176756751,aTHENUCHI06</v>
-          </cell>
         </row>
         <row r="94">
+          <cell r="I94">
+            <v>20100325048</v>
+          </cell>
           <cell r="J94">
             <v>30708370122</v>
           </cell>
           <cell r="K94" t="str">
             <v>Jouliae1357</v>
           </cell>
-          <cell r="L94" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20100325048,Jouliae1357</v>
-          </cell>
         </row>
         <row r="95">
+          <cell r="I95">
+            <v>20109908852</v>
+          </cell>
           <cell r="J95">
             <v>30687910636</v>
           </cell>
           <cell r="K95" t="str">
             <v>RobertoB2330</v>
           </cell>
-          <cell r="L95" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20109908852,RobertoB2330</v>
-          </cell>
         </row>
         <row r="96">
+          <cell r="I96">
+            <v>20168291931</v>
+          </cell>
           <cell r="J96">
             <v>30709206695</v>
           </cell>
           <cell r="K96" t="str">
             <v>apipeAPIPE789</v>
           </cell>
-          <cell r="L96" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20168291931,apipeAPIPE789</v>
-          </cell>
         </row>
         <row r="97">
+          <cell r="I97">
+            <v>20309592159</v>
+          </cell>
           <cell r="J97">
             <v>20309592159</v>
           </cell>
           <cell r="K97" t="str">
             <v>Rieraariel209</v>
           </cell>
-          <cell r="L97" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20309592159,Rieraariel209</v>
-          </cell>
         </row>
         <row r="98">
+          <cell r="I98">
+            <v>20121182832</v>
+          </cell>
           <cell r="J98">
             <v>20121182832</v>
           </cell>
           <cell r="K98" t="str">
             <v>RieraManuel2023</v>
           </cell>
-          <cell r="L98" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20121182832,RieraManuel2023</v>
-          </cell>
         </row>
         <row r="99">
+          <cell r="I99">
+            <v>20173120282</v>
+          </cell>
           <cell r="J99">
             <v>20173120282</v>
           </cell>
           <cell r="K99" t="str">
             <v>Marcelo2021</v>
           </cell>
-          <cell r="L99" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20173120282,Marcelo2021</v>
-          </cell>
         </row>
         <row r="100">
+          <cell r="I100">
+            <v>27217236547</v>
+          </cell>
           <cell r="J100">
             <v>27217236547</v>
           </cell>
           <cell r="K100" t="str">
             <v>Florencia2000</v>
           </cell>
-          <cell r="L100" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27217236547,Florencia2000</v>
-          </cell>
         </row>
         <row r="101">
+          <cell r="I101">
+            <v>20116452023</v>
+          </cell>
           <cell r="J101">
             <v>30510926583</v>
           </cell>
           <cell r="K101" t="str">
             <v>Ljrc421992</v>
           </cell>
-          <cell r="L101" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20116452023,Ljrc421992</v>
-          </cell>
         </row>
         <row r="102">
+          <cell r="I102">
+            <v>23351897074</v>
+          </cell>
           <cell r="J102">
             <v>23351897074</v>
           </cell>
           <cell r="K102" t="str">
             <v>Lucila2022</v>
           </cell>
-          <cell r="L102" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23351897074,Lucila2022</v>
-          </cell>
         </row>
         <row r="103">
+          <cell r="I103">
+            <v>27109797257</v>
+          </cell>
           <cell r="J103">
             <v>27109797257</v>
           </cell>
           <cell r="K103" t="str">
             <v>Olgascotto279</v>
           </cell>
-          <cell r="L103" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27109797257,Olgascotto279</v>
-          </cell>
         </row>
         <row r="104">
+          <cell r="I104">
+            <v>27068286323</v>
+          </cell>
           <cell r="J104">
             <v>27068286323</v>
           </cell>
           <cell r="K104" t="str">
             <v>Sesmero2023</v>
           </cell>
-          <cell r="L104" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27068286323,Sesmero2023</v>
-          </cell>
         </row>
         <row r="105">
+          <cell r="I105">
+            <v>27067089680</v>
+          </cell>
           <cell r="J105">
             <v>27067089680</v>
           </cell>
           <cell r="K105" t="str">
             <v>Tsesmero272</v>
           </cell>
-          <cell r="L105" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27067089680,Tsesmero272</v>
-          </cell>
         </row>
         <row r="106">
+          <cell r="I106">
+            <v>23149462074</v>
+          </cell>
           <cell r="J106">
             <v>23149462074</v>
           </cell>
           <cell r="K106" t="str">
             <v>Gabriela2023</v>
           </cell>
-          <cell r="L106" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23149462074,Gabriela2023</v>
-          </cell>
         </row>
         <row r="107">
+          <cell r="I107">
+            <v>23248265159</v>
+          </cell>
           <cell r="J107">
             <v>23248265159</v>
           </cell>
           <cell r="K107" t="str">
             <v>Sebastian10</v>
           </cell>
-          <cell r="L107" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23248265159,Sebastian10</v>
-          </cell>
         </row>
         <row r="108">
+          <cell r="I108">
+            <v>23242946669</v>
+          </cell>
           <cell r="J108">
             <v>23242946669</v>
           </cell>
           <cell r="K108" t="str">
             <v>Miguelsoto667</v>
           </cell>
-          <cell r="L108" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,23242946669,Miguelsoto667</v>
-          </cell>
         </row>
         <row r="109">
+          <cell r="I109">
+            <v>27201932268</v>
+          </cell>
           <cell r="J109">
             <v>27201932268</v>
           </cell>
           <cell r="K109" t="str">
             <v>Susana2789</v>
           </cell>
-          <cell r="L109" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27201932268,Susana2789</v>
-          </cell>
         </row>
         <row r="110">
+          <cell r="I110">
+            <v>27201178776</v>
+          </cell>
           <cell r="J110">
             <v>27201178776</v>
           </cell>
           <cell r="K110" t="str">
             <v>Monicaszy11</v>
           </cell>
-          <cell r="L110" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27201178776,Monicaszy11</v>
-          </cell>
         </row>
         <row r="111">
+          <cell r="I111">
+            <v>27348916942</v>
+          </cell>
           <cell r="J111">
             <v>27348916942</v>
           </cell>
           <cell r="K111" t="str">
             <v>karen580</v>
           </cell>
-          <cell r="L111" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27348916942,karen580</v>
-          </cell>
         </row>
         <row r="112">
+          <cell r="I112">
+            <v>20149462601</v>
+          </cell>
           <cell r="J112">
             <v>20149462601</v>
           </cell>
           <cell r="K112" t="str">
             <v>Marcelo203</v>
           </cell>
-          <cell r="L112" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20149462601,Marcelo203</v>
-          </cell>
         </row>
         <row r="113">
+          <cell r="I113">
+            <v>20074827455</v>
+          </cell>
           <cell r="J113">
             <v>20074827455</v>
           </cell>
           <cell r="K113" t="str">
             <v>Ricardo103</v>
           </cell>
-          <cell r="L113" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20074827455,Ricardo103</v>
-          </cell>
         </row>
         <row r="114">
+          <cell r="I114">
+            <v>20130056637</v>
+          </cell>
           <cell r="J114">
             <v>20130056637</v>
           </cell>
           <cell r="K114" t="str">
             <v>Tabbiae208</v>
           </cell>
-          <cell r="L114" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20130056637,Tabbiae208</v>
-          </cell>
         </row>
         <row r="115">
+          <cell r="I115">
+            <v>20133762761</v>
+          </cell>
           <cell r="J115">
             <v>30715577743</v>
           </cell>
           <cell r="K115" t="str">
             <v>Cferreyra60</v>
           </cell>
-          <cell r="L115" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20133762761,Cferreyra60</v>
-          </cell>
         </row>
         <row r="116">
+          <cell r="I116">
+            <v>27236873744</v>
+          </cell>
           <cell r="J116">
             <v>27236873744</v>
           </cell>
           <cell r="K116" t="str">
             <v>SOTOmalena2023</v>
           </cell>
-          <cell r="L116" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27236873744,SOTOmalena2023</v>
-          </cell>
         </row>
         <row r="117">
+          <cell r="I117">
+            <v>20051985967</v>
+          </cell>
           <cell r="J117">
             <v>20051985967</v>
           </cell>
           <cell r="K117" t="str">
             <v>Andres5967</v>
           </cell>
-          <cell r="L117" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20051985967,Andres5967</v>
-          </cell>
         </row>
         <row r="118">
+          <cell r="I118">
+            <v>20230966738</v>
+          </cell>
           <cell r="J118">
             <v>20230966738</v>
           </cell>
           <cell r="K118" t="str">
             <v>Durrutia4441</v>
           </cell>
-          <cell r="L118" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20230966738,Durrutia4441</v>
-          </cell>
         </row>
         <row r="119">
+          <cell r="I119">
+            <v>27116976620</v>
+          </cell>
           <cell r="J119">
             <v>27116976620</v>
           </cell>
           <cell r="K119" t="str">
             <v>Miriamu2023</v>
           </cell>
-          <cell r="L119" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27116976620,Miriamu2023</v>
-          </cell>
         </row>
         <row r="120">
+          <cell r="I120">
+            <v>20044483441</v>
+          </cell>
           <cell r="J120" t="e">
             <v>#VALUE!</v>
           </cell>
           <cell r="K120" t="str">
             <v>Calafate2023</v>
           </cell>
-          <cell r="L120" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20044483441,Calafate2023</v>
-          </cell>
         </row>
         <row r="121">
+          <cell r="I121">
+            <v>20315731330</v>
+          </cell>
           <cell r="J121">
             <v>20315731330</v>
           </cell>
           <cell r="K121" t="str">
             <v>AngelGV201</v>
           </cell>
-          <cell r="L121" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20315731330,AngelGV201</v>
-          </cell>
         </row>
         <row r="122">
+          <cell r="I122">
+            <v>20110780525</v>
+          </cell>
           <cell r="J122">
             <v>20110780525</v>
           </cell>
           <cell r="K122" t="str">
             <v>vare205</v>
           </cell>
-          <cell r="L122" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20110780525,vare205</v>
-          </cell>
         </row>
         <row r="123">
+          <cell r="I123">
+            <v>20301650087</v>
+          </cell>
           <cell r="J123">
             <v>20301650087</v>
           </cell>
           <cell r="K123" t="str">
             <v>VarenizaLeo208</v>
           </cell>
-          <cell r="L123" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20301650087,VarenizaLeo208</v>
-          </cell>
         </row>
         <row r="124">
+          <cell r="I124">
+            <v>20334250327</v>
+          </cell>
           <cell r="J124">
             <v>30715795864</v>
           </cell>
           <cell r="K124" t="str">
             <v>Pensalu208</v>
           </cell>
-          <cell r="L124" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,20334250327,Pensalu208</v>
-          </cell>
         </row>
         <row r="125">
+          <cell r="I125">
+            <v>27142090959</v>
+          </cell>
           <cell r="J125">
             <v>27142090959</v>
           </cell>
           <cell r="K125" t="str">
             <v>Trapito5058</v>
           </cell>
-          <cell r="L125" t="str">
-            <v>auth.afip.gob.ar,https://auth.afip.gob.ar/contribuyente_/login.xhtml,27142090959,Trapito5058</v>
-          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1853,7 +1848,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="J74" sqref="J74"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,23 +1948,23 @@
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D2,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D2,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L2" s="4" t="str">
-        <f>IF(EXACT(K2,F2),"ü","x")</f>
+        <f t="shared" ref="L2:L33" si="1">IF(EXACT(K2,F2),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="M2" s="3">
-        <f>ROW(A2)</f>
+        <f t="shared" ref="M2:M33" si="2">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="N2" s="3">
-        <f>IF(D2=D1,1,0)</f>
+        <f t="shared" ref="N2:N33" si="3">IF(D2=D1,1,0)</f>
         <v>0</v>
       </c>
       <c r="O2" s="3">
-        <f>IF(D2=D3,1,0)</f>
+        <f t="shared" ref="O2:O33" si="4">IF(D2=D3,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -1979,11 +1974,11 @@
         <v>9</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="1">"Cliente "&amp;M3-1</f>
+        <f t="shared" ref="B3:B66" si="5">"Cliente "&amp;M3-1</f>
         <v>Cliente 2</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="2">B3</f>
+        <f t="shared" ref="C3:C66" si="6">B3</f>
         <v>Cliente 2</v>
       </c>
       <c r="D3">
@@ -1994,7 +1989,7 @@
         <v>20-00000000-9</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="3">"Clave"&amp;M3-1</f>
+        <f t="shared" ref="F3:F66" si="7">"Clave"&amp;M3-1</f>
         <v>Clave2</v>
       </c>
       <c r="G3" s="2"/>
@@ -2006,23 +2001,23 @@
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D3,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D3,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L3" s="4" t="str">
-        <f>IF(EXACT(K3,F3),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M3" s="3">
-        <f>ROW(A3)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N3" s="3">
-        <f>IF(D3=D2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O3" s="3">
-        <f>IF(D3=D4,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2032,22 +2027,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 3</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 3</v>
       </c>
       <c r="D4">
         <v>20000000009</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E67" si="4">TEXT(D4,"00-00000000-0")</f>
+        <f t="shared" ref="E4:E67" si="8">TEXT(D4,"00-00000000-0")</f>
         <v>20-00000000-9</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave3</v>
       </c>
       <c r="G4" s="2"/>
@@ -2059,23 +2054,23 @@
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D4,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D4,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L4" s="4" t="str">
-        <f>IF(EXACT(K4,F4),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M4" s="3">
-        <f>ROW(A4)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N4" s="3">
-        <f>IF(D4=D3,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O4" s="3">
-        <f>IF(D4=D5,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2085,22 +2080,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 4</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 4</v>
       </c>
       <c r="D5">
         <v>20000000009</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave4</v>
       </c>
       <c r="G5" s="2"/>
@@ -2112,23 +2107,23 @@
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D5,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D5,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L5" s="4" t="str">
-        <f>IF(EXACT(K5,F5),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M5" s="3">
-        <f>ROW(A5)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N5" s="3">
-        <f>IF(D5=D4,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O5" s="3">
-        <f>IF(D5=D6,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2138,22 +2133,22 @@
         <v>9</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 5</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 5</v>
       </c>
       <c r="D6">
         <v>20000000009</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave5</v>
       </c>
       <c r="G6" s="2"/>
@@ -2165,23 +2160,23 @@
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D6,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D6,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L6" s="4" t="str">
-        <f>IF(EXACT(K6,F6),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M6" s="3">
-        <f>ROW(A6)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N6" s="3">
-        <f>IF(D6=D5,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O6" s="3">
-        <f>IF(D6=D7,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2191,22 +2186,22 @@
         <v>9</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 6</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 6</v>
       </c>
       <c r="D7">
         <v>20000000009</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave6</v>
       </c>
       <c r="G7" s="2"/>
@@ -2218,23 +2213,23 @@
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D7,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D7,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L7" s="4" t="str">
-        <f>IF(EXACT(K7,F7),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M7" s="3">
-        <f>ROW(A7)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="N7" s="3">
-        <f>IF(D7=D6,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O7" s="3">
-        <f>IF(D7=D8,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2244,22 +2239,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 7</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 7</v>
       </c>
       <c r="D8">
         <v>20000000009</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave7</v>
       </c>
       <c r="G8" s="2"/>
@@ -2271,23 +2266,23 @@
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D8,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D8,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L8" s="4" t="str">
-        <f>IF(EXACT(K8,F8),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M8" s="3">
-        <f>ROW(A8)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="N8" s="3">
-        <f>IF(D8=D7,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O8" s="3">
-        <f>IF(D8=D9,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2297,22 +2292,22 @@
         <v>9</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 8</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 8</v>
       </c>
       <c r="D9">
         <v>20000000009</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave8</v>
       </c>
       <c r="G9" s="2"/>
@@ -2324,23 +2319,23 @@
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D9,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D9,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L9" s="4" t="str">
-        <f>IF(EXACT(K9,F9),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M9" s="3">
-        <f>ROW(A9)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N9" s="3">
-        <f>IF(D9=D8,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O9" s="3">
-        <f>IF(D9=D10,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2350,22 +2345,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 9</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 9</v>
       </c>
       <c r="D10">
         <v>20000000009</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave9</v>
       </c>
       <c r="G10" s="2"/>
@@ -2377,23 +2372,23 @@
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D10,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D10,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L10" s="4" t="str">
-        <f>IF(EXACT(K10,F10),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M10" s="3">
-        <f>ROW(A10)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="N10" s="3">
-        <f>IF(D10=D9,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O10" s="3">
-        <f>IF(D10=D11,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2403,22 +2398,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 10</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 10</v>
       </c>
       <c r="D11">
         <v>20000000009</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave10</v>
       </c>
       <c r="G11" s="2"/>
@@ -2430,23 +2425,23 @@
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D11,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D11,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L11" s="4" t="str">
-        <f>IF(EXACT(K11,F11),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M11" s="3">
-        <f>ROW(A11)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="N11" s="3">
-        <f>IF(D11=D10,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O11" s="3">
-        <f>IF(D11=D12,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2456,22 +2451,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 11</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 11</v>
       </c>
       <c r="D12">
         <v>20000000009</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave11</v>
       </c>
       <c r="G12" s="2"/>
@@ -2483,23 +2478,23 @@
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D12,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D12,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L12" s="4" t="str">
-        <f>IF(EXACT(K12,F12),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M12" s="3">
-        <f>ROW(A12)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="N12" s="3">
-        <f>IF(D12=D11,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O12" s="3">
-        <f>IF(D12=D13,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2509,22 +2504,22 @@
         <v>9</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 12</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 12</v>
       </c>
       <c r="D13">
         <v>20000000009</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave12</v>
       </c>
       <c r="G13" s="2"/>
@@ -2536,23 +2531,23 @@
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D13,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D13,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L13" s="4" t="str">
-        <f>IF(EXACT(K13,F13),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M13" s="3">
-        <f>ROW(A13)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="N13" s="3">
-        <f>IF(D13=D12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O13" s="3">
-        <f>IF(D13=D14,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2562,22 +2557,22 @@
         <v>9</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 13</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 13</v>
       </c>
       <c r="D14">
         <v>20000000009</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave13</v>
       </c>
       <c r="G14" s="2"/>
@@ -2589,23 +2584,23 @@
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D14,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D14,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L14" s="4" t="str">
-        <f>IF(EXACT(K14,F14),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M14" s="3">
-        <f>ROW(A14)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="N14" s="3">
-        <f>IF(D14=D13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O14" s="3">
-        <f>IF(D14=D15,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2615,22 +2610,22 @@
         <v>9</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 14</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 14</v>
       </c>
       <c r="D15">
         <v>20000000009</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave14</v>
       </c>
       <c r="G15" s="2"/>
@@ -2642,23 +2637,23 @@
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D15,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D15,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L15" s="4" t="str">
-        <f>IF(EXACT(K15,F15),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M15" s="3">
-        <f>ROW(A15)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="N15" s="3">
-        <f>IF(D15=D14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O15" s="3">
-        <f>IF(D15=D16,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2668,22 +2663,22 @@
         <v>9</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 15</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 15</v>
       </c>
       <c r="D16">
         <v>20000000009</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave15</v>
       </c>
       <c r="G16" s="2"/>
@@ -2695,23 +2690,23 @@
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D16,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D16,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L16" s="4" t="str">
-        <f>IF(EXACT(K16,F16),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M16" s="3">
-        <f>ROW(A16)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="N16" s="3">
-        <f>IF(D16=D15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O16" s="3">
-        <f>IF(D16=D17,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2721,22 +2716,22 @@
         <v>9</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 16</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 16</v>
       </c>
       <c r="D17">
         <v>20000000009</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave16</v>
       </c>
       <c r="G17" s="2"/>
@@ -2748,23 +2743,23 @@
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D17,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D17,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L17" s="4" t="str">
-        <f>IF(EXACT(K17,F17),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M17" s="3">
-        <f>ROW(A17)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="N17" s="3">
-        <f>IF(D17=D16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O17" s="3">
-        <f>IF(D17=D18,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2774,22 +2769,22 @@
         <v>9</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 17</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 17</v>
       </c>
       <c r="D18">
         <v>20000000009</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave17</v>
       </c>
       <c r="G18" s="2"/>
@@ -2801,23 +2796,23 @@
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D18,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D18,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L18" s="4" t="str">
-        <f>IF(EXACT(K18,F18),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M18" s="3">
-        <f>ROW(A18)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="N18" s="3">
-        <f>IF(D18=D17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O18" s="3">
-        <f>IF(D18=D19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2827,22 +2822,22 @@
         <v>9</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 18</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 18</v>
       </c>
       <c r="D19">
         <v>20000000009</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave18</v>
       </c>
       <c r="G19" s="2"/>
@@ -2854,23 +2849,23 @@
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D19,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D19,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L19" s="4" t="str">
-        <f>IF(EXACT(K19,F19),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M19" s="3">
-        <f>ROW(A19)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="N19" s="3">
-        <f>IF(D19=D18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O19" s="3">
-        <f>IF(D19=D20,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2880,22 +2875,22 @@
         <v>9</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 19</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 19</v>
       </c>
       <c r="D20">
         <v>20000000009</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave19</v>
       </c>
       <c r="G20" s="2"/>
@@ -2907,23 +2902,23 @@
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D20,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D20,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L20" s="4" t="str">
-        <f>IF(EXACT(K20,F20),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M20" s="3">
-        <f>ROW(A20)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="N20" s="3">
-        <f>IF(D20=D19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O20" s="3">
-        <f>IF(D20=D21,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2933,22 +2928,22 @@
         <v>9</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 20</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 20</v>
       </c>
       <c r="D21">
         <v>20000000009</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave20</v>
       </c>
       <c r="G21" s="2"/>
@@ -2960,23 +2955,23 @@
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D21,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D21,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L21" s="4" t="str">
-        <f>IF(EXACT(K21,F21),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M21" s="3">
-        <f>ROW(A21)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="N21" s="3">
-        <f>IF(D21=D20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O21" s="3">
-        <f>IF(D21=D22,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2986,22 +2981,22 @@
         <v>9</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 21</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 21</v>
       </c>
       <c r="D22">
         <v>20000000009</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave21</v>
       </c>
       <c r="G22" s="2"/>
@@ -3013,23 +3008,23 @@
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D22,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D22,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L22" s="4" t="str">
-        <f>IF(EXACT(K22,F22),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M22" s="3">
-        <f>ROW(A22)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="N22" s="3">
-        <f>IF(D22=D21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O22" s="3">
-        <f>IF(D22=D23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3039,22 +3034,22 @@
         <v>9</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 22</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 22</v>
       </c>
       <c r="D23">
         <v>20000000009</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave22</v>
       </c>
       <c r="G23" s="2"/>
@@ -3066,23 +3061,23 @@
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D23,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D23,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L23" s="4" t="str">
-        <f>IF(EXACT(K23,F23),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M23" s="3">
-        <f>ROW(A23)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="N23" s="3">
-        <f>IF(D23=D22,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O23" s="3">
-        <f>IF(D23=D24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3092,22 +3087,22 @@
         <v>9</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 23</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 23</v>
       </c>
       <c r="D24">
         <v>20000000009</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave23</v>
       </c>
       <c r="G24" s="2"/>
@@ -3119,23 +3114,23 @@
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D24,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D24,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L24" s="4" t="str">
-        <f>IF(EXACT(K24,F24),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M24" s="3">
-        <f>ROW(A24)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="N24" s="3">
-        <f>IF(D24=D23,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O24" s="3">
-        <f>IF(D24=D25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3145,22 +3140,22 @@
         <v>9</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 24</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 24</v>
       </c>
       <c r="D25">
         <v>20000000009</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave24</v>
       </c>
       <c r="G25" s="2"/>
@@ -3172,23 +3167,23 @@
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D25,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D25,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L25" s="4" t="str">
-        <f>IF(EXACT(K25,F25),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M25" s="3">
-        <f>ROW(A25)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N25" s="3">
-        <f>IF(D25=D24,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O25" s="3">
-        <f>IF(D25=D26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3198,22 +3193,22 @@
         <v>9</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 25</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 25</v>
       </c>
       <c r="D26">
         <v>20000000009</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave25</v>
       </c>
       <c r="G26" s="2"/>
@@ -3225,23 +3220,23 @@
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D26,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D26,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L26" s="4" t="str">
-        <f>IF(EXACT(K26,F26),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M26" s="3">
-        <f>ROW(A26)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="N26" s="3">
-        <f>IF(D26=D25,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O26" s="3">
-        <f>IF(D26=D27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3251,22 +3246,22 @@
         <v>9</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 26</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 26</v>
       </c>
       <c r="D27">
         <v>20000000009</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave26</v>
       </c>
       <c r="G27" s="2"/>
@@ -3278,23 +3273,23 @@
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D27,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D27,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L27" s="4" t="str">
-        <f>IF(EXACT(K27,F27),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M27" s="3">
-        <f>ROW(A27)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="N27" s="3">
-        <f>IF(D27=D26,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O27" s="3">
-        <f>IF(D27=D28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3304,22 +3299,22 @@
         <v>9</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 27</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 27</v>
       </c>
       <c r="D28">
         <v>20000000009</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave27</v>
       </c>
       <c r="G28" s="2"/>
@@ -3331,23 +3326,23 @@
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D28,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D28,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L28" s="4" t="str">
-        <f>IF(EXACT(K28,F28),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M28" s="3">
-        <f>ROW(A28)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="N28" s="3">
-        <f>IF(D28=D27,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O28" s="3">
-        <f>IF(D28=D29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3357,22 +3352,22 @@
         <v>9</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 28</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 28</v>
       </c>
       <c r="D29">
         <v>20000000009</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave28</v>
       </c>
       <c r="G29" s="2"/>
@@ -3384,23 +3379,23 @@
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D29,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D29,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L29" s="4" t="str">
-        <f>IF(EXACT(K29,F29),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M29" s="3">
-        <f>ROW(A29)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="N29" s="3">
-        <f>IF(D29=D28,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O29" s="3">
-        <f>IF(D29=D30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3410,22 +3405,22 @@
         <v>9</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 29</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 29</v>
       </c>
       <c r="D30">
         <v>20000000009</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave29</v>
       </c>
       <c r="G30" s="2"/>
@@ -3437,23 +3432,23 @@
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D30,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D30,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L30" s="4" t="str">
-        <f>IF(EXACT(K30,F30),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M30" s="3">
-        <f>ROW(A30)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="N30" s="3">
-        <f>IF(D30=D29,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O30" s="3">
-        <f>IF(D30=D31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3463,22 +3458,22 @@
         <v>9</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 30</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 30</v>
       </c>
       <c r="D31">
         <v>20000000009</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave30</v>
       </c>
       <c r="G31" s="2"/>
@@ -3490,23 +3485,23 @@
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D31,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D31,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L31" s="4" t="str">
-        <f>IF(EXACT(K31,F31),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M31" s="3">
-        <f>ROW(A31)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="N31" s="3">
-        <f>IF(D31=D30,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O31" s="3">
-        <f>IF(D31=D32,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3516,22 +3511,22 @@
         <v>9</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 31</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 31</v>
       </c>
       <c r="D32">
         <v>20000000009</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave31</v>
       </c>
       <c r="G32" s="2"/>
@@ -3543,23 +3538,23 @@
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D32,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D32,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L32" s="4" t="str">
-        <f>IF(EXACT(K32,F32),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M32" s="3">
-        <f>ROW(A32)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="N32" s="3">
-        <f>IF(D32=D31,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O32" s="3">
-        <f>IF(D32=D33,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3569,22 +3564,22 @@
         <v>9</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 32</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 32</v>
       </c>
       <c r="D33">
         <v>20000000009</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave32</v>
       </c>
       <c r="G33" s="2"/>
@@ -3596,48 +3591,48 @@
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D33,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D33,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L33" s="4" t="str">
-        <f>IF(EXACT(K33,F33),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="M33" s="3">
-        <f>ROW(A33)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="N33" s="3">
-        <f>IF(D33=D32,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O33" s="3">
-        <f>IF(D33=D34,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
-        <f t="shared" ref="A34:A65" si="5">RIGHT(E34,1)</f>
+        <f t="shared" ref="A34:A65" si="9">RIGHT(E34,1)</f>
         <v>9</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 33</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 33</v>
       </c>
       <c r="D34">
         <v>20000000009</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave33</v>
       </c>
       <c r="G34" s="2"/>
@@ -3649,48 +3644,48 @@
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D34,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D34,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L34" s="4" t="str">
-        <f>IF(EXACT(K34,F34),"ü","x")</f>
+        <f t="shared" ref="L34:L65" si="10">IF(EXACT(K34,F34),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="M34" s="3">
-        <f>ROW(A34)</f>
+        <f t="shared" ref="M34:M65" si="11">ROW(A34)</f>
         <v>34</v>
       </c>
       <c r="N34" s="3">
-        <f>IF(D34=D33,1,0)</f>
+        <f t="shared" ref="N34:N68" si="12">IF(D34=D33,1,0)</f>
         <v>1</v>
       </c>
       <c r="O34" s="3">
-        <f>IF(D34=D35,1,0)</f>
+        <f t="shared" ref="O34:O68" si="13">IF(D34=D35,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 34</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 34</v>
       </c>
       <c r="D35">
         <v>20000000009</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave34</v>
       </c>
       <c r="G35" s="2"/>
@@ -3702,48 +3697,48 @@
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D35,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D35,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L35" s="4" t="str">
-        <f>IF(EXACT(K35,F35),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M35" s="3">
-        <f>ROW(A35)</f>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="N35" s="3">
-        <f>IF(D35=D34,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O35" s="3">
-        <f>IF(D35=D36,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 35</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 35</v>
       </c>
       <c r="D36">
         <v>20000000009</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave35</v>
       </c>
       <c r="G36" s="2"/>
@@ -3755,48 +3750,48 @@
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D36,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D36,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L36" s="4" t="str">
-        <f>IF(EXACT(K36,F36),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M36" s="3">
-        <f>ROW(A36)</f>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="N36" s="3">
-        <f>IF(D36=D35,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O36" s="3">
-        <f>IF(D36=D37,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 36</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 36</v>
       </c>
       <c r="D37">
         <v>20000000009</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave36</v>
       </c>
       <c r="G37" s="2"/>
@@ -3808,48 +3803,48 @@
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D37,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D37,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L37" s="4" t="str">
-        <f>IF(EXACT(K37,F37),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M37" s="3">
-        <f>ROW(A37)</f>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="N37" s="3">
-        <f>IF(D37=D36,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O37" s="3">
-        <f>IF(D37=D38,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 37</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 37</v>
       </c>
       <c r="D38">
         <v>20000000009</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave37</v>
       </c>
       <c r="G38" s="2"/>
@@ -3861,48 +3856,48 @@
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D38,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D38,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L38" s="4" t="str">
-        <f>IF(EXACT(K38,F38),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M38" s="3">
-        <f>ROW(A38)</f>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="N38" s="3">
-        <f>IF(D38=D37,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O38" s="3">
-        <f>IF(D38=D39,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 38</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 38</v>
       </c>
       <c r="D39">
         <v>20000000009</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave38</v>
       </c>
       <c r="G39" s="2"/>
@@ -3914,48 +3909,48 @@
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D39,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D39,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L39" s="4" t="str">
-        <f>IF(EXACT(K39,F39),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M39" s="3">
-        <f>ROW(A39)</f>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="N39" s="3">
-        <f>IF(D39=D38,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O39" s="3">
-        <f>IF(D39=D40,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 39</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 39</v>
       </c>
       <c r="D40">
         <v>20000000009</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave39</v>
       </c>
       <c r="G40" s="2"/>
@@ -3967,48 +3962,48 @@
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D40,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D40,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L40" s="4" t="str">
-        <f>IF(EXACT(K40,F40),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M40" s="3">
-        <f>ROW(A40)</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="N40" s="3">
-        <f>IF(D40=D39,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O40" s="3">
-        <f>IF(D40=D41,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 40</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 40</v>
       </c>
       <c r="D41">
         <v>20000000009</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave40</v>
       </c>
       <c r="G41" s="2"/>
@@ -4020,48 +4015,48 @@
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D41,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D41,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L41" s="4" t="str">
-        <f>IF(EXACT(K41,F41),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M41" s="3">
-        <f>ROW(A41)</f>
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
       <c r="N41" s="3">
-        <f>IF(D41=D40,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O41" s="3">
-        <f>IF(D41=D42,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 41</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 41</v>
       </c>
       <c r="D42">
         <v>20000000009</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave41</v>
       </c>
       <c r="G42" s="2"/>
@@ -4073,48 +4068,48 @@
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D42,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D42,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L42" s="4" t="str">
-        <f>IF(EXACT(K42,F42),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M42" s="3">
-        <f>ROW(A42)</f>
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
       <c r="N42" s="3">
-        <f>IF(D42=D41,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O42" s="3">
-        <f>IF(D42=D43,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 42</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 42</v>
       </c>
       <c r="D43">
         <v>20000000009</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave42</v>
       </c>
       <c r="G43" s="2"/>
@@ -4126,48 +4121,48 @@
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D43,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D43,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L43" s="4" t="str">
-        <f>IF(EXACT(K43,F43),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M43" s="3">
-        <f>ROW(A43)</f>
+        <f t="shared" si="11"/>
         <v>43</v>
       </c>
       <c r="N43" s="3">
-        <f>IF(D43=D42,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O43" s="3">
-        <f>IF(D43=D44,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 43</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 43</v>
       </c>
       <c r="D44">
         <v>20000000009</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave43</v>
       </c>
       <c r="G44" s="2"/>
@@ -4179,48 +4174,48 @@
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D44,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D44,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L44" s="4" t="str">
-        <f>IF(EXACT(K44,F44),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M44" s="3">
-        <f>ROW(A44)</f>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
       <c r="N44" s="3">
-        <f>IF(D44=D43,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O44" s="3">
-        <f>IF(D44=D45,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 44</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 44</v>
       </c>
       <c r="D45">
         <v>20000000009</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave44</v>
       </c>
       <c r="G45" s="2"/>
@@ -4232,48 +4227,48 @@
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D45,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D45,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L45" s="4" t="str">
-        <f>IF(EXACT(K45,F45),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M45" s="3">
-        <f>ROW(A45)</f>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="N45" s="3">
-        <f>IF(D45=D44,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O45" s="3">
-        <f>IF(D45=D46,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 45</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 45</v>
       </c>
       <c r="D46">
         <v>20000000009</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave45</v>
       </c>
       <c r="G46" s="2"/>
@@ -4285,48 +4280,48 @@
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D46,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D46,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L46" s="4" t="str">
-        <f>IF(EXACT(K46,F46),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M46" s="3">
-        <f>ROW(A46)</f>
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="N46" s="3">
-        <f>IF(D46=D45,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O46" s="3">
-        <f>IF(D46=D47,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 46</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 46</v>
       </c>
       <c r="D47">
         <v>20000000009</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave46</v>
       </c>
       <c r="G47" s="2"/>
@@ -4338,48 +4333,48 @@
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D47,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D47,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L47" s="4" t="str">
-        <f>IF(EXACT(K47,F47),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M47" s="3">
-        <f>ROW(A47)</f>
+        <f t="shared" si="11"/>
         <v>47</v>
       </c>
       <c r="N47" s="3">
-        <f>IF(D47=D46,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O47" s="3">
-        <f>IF(D47=D48,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 47</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 47</v>
       </c>
       <c r="D48">
         <v>20000000009</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave47</v>
       </c>
       <c r="G48" s="2"/>
@@ -4391,48 +4386,48 @@
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D48,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D48,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L48" s="4" t="str">
-        <f>IF(EXACT(K48,F48),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M48" s="3">
-        <f>ROW(A48)</f>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="N48" s="3">
-        <f>IF(D48=D47,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O48" s="3">
-        <f>IF(D48=D49,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 48</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 48</v>
       </c>
       <c r="D49">
         <v>20000000009</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave48</v>
       </c>
       <c r="G49" s="2"/>
@@ -4444,48 +4439,48 @@
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D49,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D49,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L49" s="4" t="str">
-        <f>IF(EXACT(K49,F49),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M49" s="3">
-        <f>ROW(A49)</f>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="N49" s="3">
-        <f>IF(D49=D48,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O49" s="3">
-        <f>IF(D49=D50,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 49</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 49</v>
       </c>
       <c r="D50">
         <v>20000000009</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave49</v>
       </c>
       <c r="G50" s="2"/>
@@ -4497,48 +4492,48 @@
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D50,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D50,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L50" s="4" t="str">
-        <f>IF(EXACT(K50,F50),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M50" s="3">
-        <f>ROW(A50)</f>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="N50" s="3">
-        <f>IF(D50=D49,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O50" s="3">
-        <f>IF(D50=D51,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 50</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 50</v>
       </c>
       <c r="D51">
         <v>20000000009</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave50</v>
       </c>
       <c r="G51" s="2"/>
@@ -4550,48 +4545,48 @@
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D51,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D51,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L51" s="4" t="str">
-        <f>IF(EXACT(K51,F51),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M51" s="3">
-        <f>ROW(A51)</f>
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="N51" s="3">
-        <f>IF(D51=D50,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O51" s="3">
-        <f>IF(D51=D52,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 51</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 51</v>
       </c>
       <c r="D52">
         <v>20000000009</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave51</v>
       </c>
       <c r="G52" s="2"/>
@@ -4603,48 +4598,48 @@
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D52,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D52,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L52" s="4" t="str">
-        <f>IF(EXACT(K52,F52),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M52" s="3">
-        <f>ROW(A52)</f>
+        <f t="shared" si="11"/>
         <v>52</v>
       </c>
       <c r="N52" s="3">
-        <f>IF(D52=D51,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O52" s="3">
-        <f>IF(D52=D53,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 52</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 52</v>
       </c>
       <c r="D53">
         <v>20000000009</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave52</v>
       </c>
       <c r="G53" s="2"/>
@@ -4656,48 +4651,48 @@
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D53,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D53,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L53" s="4" t="str">
-        <f>IF(EXACT(K53,F53),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M53" s="3">
-        <f>ROW(A53)</f>
+        <f t="shared" si="11"/>
         <v>53</v>
       </c>
       <c r="N53" s="3">
-        <f>IF(D53=D52,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O53" s="3">
-        <f>IF(D53=D54,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 53</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 53</v>
       </c>
       <c r="D54">
         <v>20000000009</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave53</v>
       </c>
       <c r="G54" s="2"/>
@@ -4709,48 +4704,48 @@
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D54,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D54,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L54" s="4" t="str">
-        <f>IF(EXACT(K54,F54),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M54" s="3">
-        <f>ROW(A54)</f>
+        <f t="shared" si="11"/>
         <v>54</v>
       </c>
       <c r="N54" s="3">
-        <f>IF(D54=D53,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O54" s="3">
-        <f>IF(D54=D55,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 54</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 54</v>
       </c>
       <c r="D55">
         <v>20000000009</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave54</v>
       </c>
       <c r="G55" s="2"/>
@@ -4762,48 +4757,48 @@
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D55,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D55,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L55" s="4" t="str">
-        <f>IF(EXACT(K55,F55),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M55" s="3">
-        <f>ROW(A55)</f>
+        <f t="shared" si="11"/>
         <v>55</v>
       </c>
       <c r="N55" s="3">
-        <f>IF(D55=D54,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O55" s="3">
-        <f>IF(D55=D56,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 55</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 55</v>
       </c>
       <c r="D56">
         <v>20000000009</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave55</v>
       </c>
       <c r="G56" s="2"/>
@@ -4815,48 +4810,48 @@
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D56,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D56,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L56" s="4" t="str">
-        <f>IF(EXACT(K56,F56),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M56" s="3">
-        <f>ROW(A56)</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="N56" s="3">
-        <f>IF(D56=D55,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O56" s="3">
-        <f>IF(D56=D57,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 56</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 56</v>
       </c>
       <c r="D57">
         <v>20000000009</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave56</v>
       </c>
       <c r="G57" s="2"/>
@@ -4868,48 +4863,48 @@
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D57,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D57,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L57" s="4" t="str">
-        <f>IF(EXACT(K57,F57),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M57" s="3">
-        <f>ROW(A57)</f>
+        <f t="shared" si="11"/>
         <v>57</v>
       </c>
       <c r="N57" s="3">
-        <f>IF(D57=D56,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O57" s="3">
-        <f>IF(D57=D58,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 57</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 57</v>
       </c>
       <c r="D58">
         <v>20000000009</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave57</v>
       </c>
       <c r="G58" s="2"/>
@@ -4921,48 +4916,48 @@
       </c>
       <c r="J58" s="5"/>
       <c r="K58" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D58,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D58,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L58" s="4" t="str">
-        <f>IF(EXACT(K58,F58),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M58" s="3">
-        <f>ROW(A58)</f>
+        <f t="shared" si="11"/>
         <v>58</v>
       </c>
       <c r="N58" s="3">
-        <f>IF(D58=D57,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O58" s="3">
-        <f>IF(D58=D59,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 58</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 58</v>
       </c>
       <c r="D59">
         <v>20000000009</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave58</v>
       </c>
       <c r="G59" s="2"/>
@@ -4974,48 +4969,48 @@
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D59,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D59,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L59" s="4" t="str">
-        <f>IF(EXACT(K59,F59),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M59" s="3">
-        <f>ROW(A59)</f>
+        <f t="shared" si="11"/>
         <v>59</v>
       </c>
       <c r="N59" s="3">
-        <f>IF(D59=D58,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O59" s="3">
-        <f>IF(D59=D60,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 59</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 59</v>
       </c>
       <c r="D60">
         <v>20000000009</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave59</v>
       </c>
       <c r="G60" s="2"/>
@@ -5027,48 +5022,48 @@
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D60,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D60,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L60" s="4" t="str">
-        <f>IF(EXACT(K60,F60),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M60" s="3">
-        <f>ROW(A60)</f>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="N60" s="3">
-        <f>IF(D60=D59,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O60" s="3">
-        <f>IF(D60=D61,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 60</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 60</v>
       </c>
       <c r="D61">
         <v>20000000009</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave60</v>
       </c>
       <c r="G61" s="2"/>
@@ -5080,48 +5075,48 @@
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D61,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D61,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L61" s="4" t="str">
-        <f>IF(EXACT(K61,F61),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M61" s="3">
-        <f>ROW(A61)</f>
+        <f t="shared" si="11"/>
         <v>61</v>
       </c>
       <c r="N61" s="3">
-        <f>IF(D61=D60,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O61" s="3">
-        <f>IF(D61=D62,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 61</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 61</v>
       </c>
       <c r="D62">
         <v>20000000009</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave61</v>
       </c>
       <c r="G62" s="2"/>
@@ -5133,48 +5128,48 @@
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D62,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D62,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L62" s="4" t="str">
-        <f>IF(EXACT(K62,F62),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M62" s="3">
-        <f>ROW(A62)</f>
+        <f t="shared" si="11"/>
         <v>62</v>
       </c>
       <c r="N62" s="3">
-        <f>IF(D62=D61,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O62" s="3">
-        <f>IF(D62=D63,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 62</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 62</v>
       </c>
       <c r="D63">
         <v>20000000009</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave62</v>
       </c>
       <c r="G63" s="2"/>
@@ -5186,48 +5181,48 @@
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D63,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D63,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L63" s="4" t="str">
-        <f>IF(EXACT(K63,F63),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M63" s="3">
-        <f>ROW(A63)</f>
+        <f t="shared" si="11"/>
         <v>63</v>
       </c>
       <c r="N63" s="3">
-        <f>IF(D63=D62,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O63" s="3">
-        <f>IF(D63=D64,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 63</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 63</v>
       </c>
       <c r="D64">
         <v>20000000009</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave63</v>
       </c>
       <c r="G64" s="2"/>
@@ -5239,48 +5234,48 @@
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D64,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D64,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L64" s="4" t="str">
-        <f>IF(EXACT(K64,F64),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M64" s="3">
-        <f>ROW(A64)</f>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="N64" s="3">
-        <f>IF(D64=D63,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O64" s="3">
-        <f>IF(D64=D65,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 64</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 64</v>
       </c>
       <c r="D65">
         <v>20000000009</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave64</v>
       </c>
       <c r="G65" s="2"/>
@@ -5292,48 +5287,48 @@
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D65,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D65,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L65" s="4" t="str">
-        <f>IF(EXACT(K65,F65),"ü","x")</f>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="M65" s="3">
-        <f>ROW(A65)</f>
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="N65" s="3">
-        <f>IF(D65=D64,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O65" s="3">
-        <f>IF(D65=D66,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
-        <f t="shared" ref="A66:A71" si="6">RIGHT(E66,1)</f>
+        <f t="shared" ref="A66:A71" si="14">RIGHT(E66,1)</f>
         <v>9</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Cliente 65</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cliente 65</v>
       </c>
       <c r="D66">
         <v>20000000009</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Clave65</v>
       </c>
       <c r="G66" s="2"/>
@@ -5345,48 +5340,48 @@
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D66,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D66,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L66" s="4" t="str">
-        <f>IF(EXACT(K66,F66),"ü","x")</f>
+        <f t="shared" ref="L66:L97" si="15">IF(EXACT(K66,F66),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="M66" s="3">
-        <f>ROW(A66)</f>
+        <f t="shared" ref="M66:M71" si="16">ROW(A66)</f>
         <v>66</v>
       </c>
       <c r="N66" s="3">
-        <f>IF(D66=D65,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O66" s="3">
-        <f>IF(D66=D67,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B71" si="7">"Cliente "&amp;M67-1</f>
+        <f t="shared" ref="B67:B71" si="17">"Cliente "&amp;M67-1</f>
         <v>Cliente 66</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C71" si="8">B67</f>
+        <f t="shared" ref="C67:C71" si="18">B67</f>
         <v>Cliente 66</v>
       </c>
       <c r="D67">
         <v>20000000009</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F71" si="9">"Clave"&amp;M67-1</f>
+        <f t="shared" ref="F67:F71" si="19">"Clave"&amp;M67-1</f>
         <v>Clave66</v>
       </c>
       <c r="G67" s="2"/>
@@ -5398,48 +5393,48 @@
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D67,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D67,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L67" s="4" t="str">
-        <f>IF(EXACT(K67,F67),"ü","x")</f>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
       <c r="M67" s="3">
-        <f>ROW(A67)</f>
+        <f t="shared" si="16"/>
         <v>67</v>
       </c>
       <c r="N67" s="3">
-        <f>IF(D67=D66,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O67" s="3">
-        <f>IF(D67=D68,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>Cliente 67</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>Cliente 67</v>
       </c>
       <c r="D68">
         <v>20000000009</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" ref="E68:E71" si="10">TEXT(D68,"00-00000000-0")</f>
+        <f t="shared" ref="E68:E71" si="20">TEXT(D68,"00-00000000-0")</f>
         <v>20-00000000-9</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>Clave67</v>
       </c>
       <c r="G68" s="2"/>
@@ -5451,48 +5446,48 @@
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D68,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D68,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L68" s="4" t="str">
-        <f>IF(EXACT(K68,F68),"ü","x")</f>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
       <c r="M68" s="3">
-        <f>ROW(A68)</f>
+        <f t="shared" si="16"/>
         <v>68</v>
       </c>
       <c r="N68" s="3">
-        <f>IF(D68=D67,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O68" s="3">
-        <f>IF(D68=D69,1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>Cliente 68</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>Cliente 68</v>
       </c>
       <c r="D69">
         <v>20000000009</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>Clave68</v>
       </c>
       <c r="G69" s="2"/>
@@ -5504,48 +5499,48 @@
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D69,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D69,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L69" s="4" t="str">
-        <f>IF(EXACT(K69,F69),"ü","x")</f>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
       <c r="M69" s="3">
-        <f>ROW(A69)</f>
+        <f t="shared" si="16"/>
         <v>69</v>
       </c>
       <c r="N69" s="3">
-        <f t="shared" ref="N69:N71" si="11">IF(D69=D68,1,0)</f>
+        <f t="shared" ref="N69:N71" si="21">IF(D69=D68,1,0)</f>
         <v>1</v>
       </c>
       <c r="O69" s="3">
-        <f t="shared" ref="O69:O71" si="12">IF(D69=D70,1,0)</f>
+        <f t="shared" ref="O69:O71" si="22">IF(D69=D70,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>Cliente 69</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>Cliente 69</v>
       </c>
       <c r="D70">
         <v>20000000009</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>Clave69</v>
       </c>
       <c r="H70" s="5" t="s">
@@ -5556,48 +5551,48 @@
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D70,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D70,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L70" s="4" t="str">
-        <f>IF(EXACT(K70,F70),"ü","x")</f>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
       <c r="M70" s="3">
-        <f>ROW(A70)</f>
+        <f t="shared" si="16"/>
         <v>70</v>
       </c>
       <c r="N70" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O70" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>Cliente 70</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>Cliente 70</v>
       </c>
       <c r="D71">
         <v>20000000009</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>20-00000000-9</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>Clave70</v>
       </c>
       <c r="H71" s="5" t="s">
@@ -5608,23 +5603,23 @@
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D71,[1]AFIP!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(D71,[1]AFIP!$I:$K,3,0),"")</f>
         <v/>
       </c>
       <c r="L71" s="4" t="str">
-        <f>IF(EXACT(K71,F71),"ü","x")</f>
+        <f t="shared" si="15"/>
         <v>x</v>
       </c>
       <c r="M71" s="3">
-        <f>ROW(A71)</f>
+        <f t="shared" si="16"/>
         <v>71</v>
       </c>
       <c r="N71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O71" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
